--- a/2023-02-20-pictorial-schedules.xlsx
+++ b/2023-02-20-pictorial-schedules.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 10 am - 10 am</t>
+          <t>February 20, 2023 Monday, 10 Am - 10 am</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 10 am - 10 am</t>
+          <t>February 20, 2023 Monday, 10 Am - 10 am</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 10 am - 10 am</t>
+          <t>February 20, 2023 Monday, 10 Am - 10 am</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 10 am - 10 am</t>
+          <t>February 20, 2023 Monday, 10 Am - 10 am</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 10 am - 10 am</t>
+          <t>February 20, 2023 Monday, 10 Am - 10 am</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>February 20, 2023 monday, 02 pm - 02 pm</t>
+          <t>February 20, 2023 Monday, 02 Pm - 02 pm</t>
         </is>
       </c>
     </row>
